--- a/data/best_models_prec.xlsx
+++ b/data/best_models_prec.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,6 +384,5949 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>126.9108442450986</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2602463404804031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>128.3731847611275</v>
+      </c>
+      <c r="D3">
+        <v>1.462340516028888</v>
+      </c>
+      <c r="E3">
+        <v>0.1252683689915879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>129.9701655339776</v>
+      </c>
+      <c r="D4">
+        <v>3.059321288879033</v>
+      </c>
+      <c r="E4">
+        <v>0.05637174182093428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>130.0027310970477</v>
+      </c>
+      <c r="D5">
+        <v>3.091886851949056</v>
+      </c>
+      <c r="E5">
+        <v>0.05546128555991928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>130.0804969255979</v>
+      </c>
+      <c r="D6">
+        <v>3.16965268049924</v>
+      </c>
+      <c r="E6">
+        <v>0.05334617642751071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>130.2514487529493</v>
+      </c>
+      <c r="D7">
+        <v>3.340604507850713</v>
+      </c>
+      <c r="E7">
+        <v>0.04897580457210131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>130.2814689653129</v>
+      </c>
+      <c r="D8">
+        <v>3.370624720214238</v>
+      </c>
+      <c r="E8">
+        <v>0.04824616224869443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Anthocharis euphenoides</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>130.7236388580225</v>
+      </c>
+      <c r="D9">
+        <v>3.812794612923852</v>
+      </c>
+      <c r="E9">
+        <v>0.03867646747029063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aporia crataegi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>185.3873930820607</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.8079225762940013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Argynnis pandora</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>45.49695382442185</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.3170153930588271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Argynnis pandora</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>46.15422930750506</v>
+      </c>
+      <c r="D12">
+        <v>0.6572754830832039</v>
+      </c>
+      <c r="E12">
+        <v>0.2282205736762882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Argynnis pandora</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>49.0708154126954</v>
+      </c>
+      <c r="D13">
+        <v>3.573861588273552</v>
+      </c>
+      <c r="E13">
+        <v>0.05309164318806785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Argynnis pandora</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>49.42275573306811</v>
+      </c>
+      <c r="D14">
+        <v>3.925801908646257</v>
+      </c>
+      <c r="E14">
+        <v>0.04452493533837949</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aricia montensis</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>37.66467520084601</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.3571268551517507</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aricia montensis</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>38.13329047162384</v>
+      </c>
+      <c r="D16">
+        <v>0.4686152707778319</v>
+      </c>
+      <c r="E16">
+        <v>0.2825296271156436</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Aricia montensis</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>38.39336794756768</v>
+      </c>
+      <c r="D17">
+        <v>0.7286927467216771</v>
+      </c>
+      <c r="E17">
+        <v>0.2480783644310813</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>323.3422966269883</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.1971090939719902</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>323.9497401027042</v>
+      </c>
+      <c r="D19">
+        <v>0.6074434757159111</v>
+      </c>
+      <c r="E19">
+        <v>0.1454795626864947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>324.974285422344</v>
+      </c>
+      <c r="D20">
+        <v>1.63198879535571</v>
+      </c>
+      <c r="E20">
+        <v>0.08716152045092355</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>325.4251523322033</v>
+      </c>
+      <c r="D21">
+        <v>2.082855705214968</v>
+      </c>
+      <c r="E21">
+        <v>0.06956972585473002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>325.6300352822093</v>
+      </c>
+      <c r="D22">
+        <v>2.287738655221006</v>
+      </c>
+      <c r="E22">
+        <v>0.06279578945662767</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>326.0173941473651</v>
+      </c>
+      <c r="D23">
+        <v>2.675097520376823</v>
+      </c>
+      <c r="E23">
+        <v>0.051738831466415</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>326.1849549098463</v>
+      </c>
+      <c r="D24">
+        <v>2.842658282857997</v>
+      </c>
+      <c r="E24">
+        <v>0.04758074728136698</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>326.4013134104789</v>
+      </c>
+      <c r="D25">
+        <v>3.05901678349062</v>
+      </c>
+      <c r="E25">
+        <v>0.04270213676095058</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>326.4747689214355</v>
+      </c>
+      <c r="D26">
+        <v>3.132472294447211</v>
+      </c>
+      <c r="E26">
+        <v>0.04116223479258908</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brintesia circe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>326.6647882333793</v>
+      </c>
+      <c r="D27">
+        <v>3.322491606391054</v>
+      </c>
+      <c r="E27">
+        <v>0.03743146080372754</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chazara briseis</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>94.03979135906891</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.3776732314114347</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chazara briseis</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>95.96623863193852</v>
+      </c>
+      <c r="D29">
+        <v>1.926447272869609</v>
+      </c>
+      <c r="E29">
+        <v>0.1441429792108281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chazara briseis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>96.14514808313707</v>
+      </c>
+      <c r="D30">
+        <v>2.105356724068159</v>
+      </c>
+      <c r="E30">
+        <v>0.1318086161114559</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chazara briseis</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>97.62567495225582</v>
+      </c>
+      <c r="D31">
+        <v>3.585883593186907</v>
+      </c>
+      <c r="E31">
+        <v>0.0628711603141803</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>51.65708431753493</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.1287713739665388</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>53.17669995409102</v>
+      </c>
+      <c r="D33">
+        <v>1.51961563655609</v>
+      </c>
+      <c r="E33">
+        <v>0.06023362305322855</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>53.30263661897139</v>
+      </c>
+      <c r="D34">
+        <v>1.64555230143646</v>
+      </c>
+      <c r="E34">
+        <v>0.05655775828031488</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>53.32269141985719</v>
+      </c>
+      <c r="D35">
+        <v>1.665607102322262</v>
+      </c>
+      <c r="E35">
+        <v>0.05599346491589342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>53.61989296403323</v>
+      </c>
+      <c r="D36">
+        <v>1.962808646498303</v>
+      </c>
+      <c r="E36">
+        <v>0.048261503501466</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>53.63171513638228</v>
+      </c>
+      <c r="D37">
+        <v>1.974630818847345</v>
+      </c>
+      <c r="E37">
+        <v>0.04797706708763936</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>53.74421142551774</v>
+      </c>
+      <c r="D38">
+        <v>2.087127107982809</v>
+      </c>
+      <c r="E38">
+        <v>0.04535293907470443</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>53.91426109364823</v>
+      </c>
+      <c r="D39">
+        <v>2.257176776113297</v>
+      </c>
+      <c r="E39">
+        <v>0.04165619716826314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>54.12066172097851</v>
+      </c>
+      <c r="D40">
+        <v>2.46357740344358</v>
+      </c>
+      <c r="E40">
+        <v>0.03757165220895296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>54.13896039780816</v>
+      </c>
+      <c r="D41">
+        <v>2.481876080273231</v>
+      </c>
+      <c r="E41">
+        <v>0.03722946423194485</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>54.3896515796999</v>
+      </c>
+      <c r="D42">
+        <v>2.73256726216497</v>
+      </c>
+      <c r="E42">
+        <v>0.03284353447990016</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>54.46280853536874</v>
+      </c>
+      <c r="D43">
+        <v>2.805724217833813</v>
+      </c>
+      <c r="E43">
+        <v>0.03166387459114361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>54.50100333510978</v>
+      </c>
+      <c r="D44">
+        <v>2.843919017574848</v>
+      </c>
+      <c r="E44">
+        <v>0.03106491441147607</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>54.92721114330075</v>
+      </c>
+      <c r="D45">
+        <v>3.270126825765814</v>
+      </c>
+      <c r="E45">
+        <v>0.02510269282563729</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>55.00600292506498</v>
+      </c>
+      <c r="D46">
+        <v>3.348918607530045</v>
+      </c>
+      <c r="E46">
+        <v>0.02413297670967704</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>55.40512064466073</v>
+      </c>
+      <c r="D47">
+        <v>3.748036327125803</v>
+      </c>
+      <c r="E47">
+        <v>0.01976712834741679</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>55.44595377598222</v>
+      </c>
+      <c r="D48">
+        <v>3.788869458447287</v>
+      </c>
+      <c r="E48">
+        <v>0.0193676434054127</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Coenonympha dorus</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>55.63135741462652</v>
+      </c>
+      <c r="D49">
+        <v>3.97427309709159</v>
+      </c>
+      <c r="E49">
+        <v>0.01765293376612353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>61.17014815208979</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.2345241263374166</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>63.01320502619957</v>
+      </c>
+      <c r="D51">
+        <v>1.843056874109784</v>
+      </c>
+      <c r="E51">
+        <v>0.09331958776485796</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>63.44507565078042</v>
+      </c>
+      <c r="D52">
+        <v>2.274927498690637</v>
+      </c>
+      <c r="E52">
+        <v>0.0751957503019583</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>63.69854283596616</v>
+      </c>
+      <c r="D53">
+        <v>2.528394683876371</v>
+      </c>
+      <c r="E53">
+        <v>0.06624507515525593</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>63.76918072041909</v>
+      </c>
+      <c r="D54">
+        <v>2.599032568329307</v>
+      </c>
+      <c r="E54">
+        <v>0.0639462049725343</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>64.31479229409474</v>
+      </c>
+      <c r="D55">
+        <v>3.144644142004957</v>
+      </c>
+      <c r="E55">
+        <v>0.04867844847826033</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>64.79406060937637</v>
+      </c>
+      <c r="D56">
+        <v>3.623912457286586</v>
+      </c>
+      <c r="E56">
+        <v>0.03830583514046468</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>64.80443718699466</v>
+      </c>
+      <c r="D57">
+        <v>3.634289034904874</v>
+      </c>
+      <c r="E57">
+        <v>0.03810760807896468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Erebia hispania</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>65.09239296679095</v>
+      </c>
+      <c r="D58">
+        <v>3.922244814701166</v>
+      </c>
+      <c r="E58">
+        <v>0.03299764051654477</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>188.4470135133546</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.2144369459985845</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>188.7410995176812</v>
+      </c>
+      <c r="D60">
+        <v>0.2940860043265729</v>
+      </c>
+      <c r="E60">
+        <v>0.1851141635354818</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>188.9350021768209</v>
+      </c>
+      <c r="D61">
+        <v>0.4879886634662114</v>
+      </c>
+      <c r="E61">
+        <v>0.1680096478398099</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>189.1648205162308</v>
+      </c>
+      <c r="D62">
+        <v>0.7178070028761567</v>
+      </c>
+      <c r="E62">
+        <v>0.1497717151253874</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>190.3876999239008</v>
+      </c>
+      <c r="D63">
+        <v>1.940686410546164</v>
+      </c>
+      <c r="E63">
+        <v>0.08126151480393978</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Euphydryas aurinia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>191.6003894559206</v>
+      </c>
+      <c r="D64">
+        <v>3.153375942565958</v>
+      </c>
+      <c r="E64">
+        <v>0.0443152014401416</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>147.4129251127823</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.1897913936313259</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>148.9209293574702</v>
+      </c>
+      <c r="D66">
+        <v>1.508004244687896</v>
+      </c>
+      <c r="E66">
+        <v>0.08929302866695195</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>149.0939603873547</v>
+      </c>
+      <c r="D67">
+        <v>1.681035274572423</v>
+      </c>
+      <c r="E67">
+        <v>0.08189254028122281</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>149.1022197325001</v>
+      </c>
+      <c r="D68">
+        <v>1.689294619717799</v>
+      </c>
+      <c r="E68">
+        <v>0.08155504824914767</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>149.2333336851419</v>
+      </c>
+      <c r="D69">
+        <v>1.820408572359582</v>
+      </c>
+      <c r="E69">
+        <v>0.0763800284715966</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>149.4361435803405</v>
+      </c>
+      <c r="D70">
+        <v>2.023218467558195</v>
+      </c>
+      <c r="E70">
+        <v>0.06901447788175417</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>149.7989561025914</v>
+      </c>
+      <c r="D71">
+        <v>2.386030989809143</v>
+      </c>
+      <c r="E71">
+        <v>0.05756472954353416</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>150.8047998709703</v>
+      </c>
+      <c r="D72">
+        <v>3.39187475818801</v>
+      </c>
+      <c r="E72">
+        <v>0.03481290535764935</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>151.044681726747</v>
+      </c>
+      <c r="D73">
+        <v>3.631756613964711</v>
+      </c>
+      <c r="E73">
+        <v>0.03087810120396754</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>151.0985173155143</v>
+      </c>
+      <c r="D74">
+        <v>3.68559220273201</v>
+      </c>
+      <c r="E74">
+        <v>0.03005801776012451</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Fabriciana niobe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>151.1824136888496</v>
+      </c>
+      <c r="D75">
+        <v>3.769488576067261</v>
+      </c>
+      <c r="E75">
+        <v>0.02882321828239436</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hipparchia fidia</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>106.4483789549573</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.6055322874252129</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hipparchia fidia</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>109.1509012080834</v>
+      </c>
+      <c r="D77">
+        <v>2.702522253126091</v>
+      </c>
+      <c r="E77">
+        <v>0.1567805032369804</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hipparchia hermione</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>170.5128190132758</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.3306100227087208</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hipparchia hermione</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>171.0249699660024</v>
+      </c>
+      <c r="D79">
+        <v>0.5121509527265573</v>
+      </c>
+      <c r="E79">
+        <v>0.2559197772591355</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hipparchia hermione</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>171.9205457212812</v>
+      </c>
+      <c r="D80">
+        <v>1.407726708005356</v>
+      </c>
+      <c r="E80">
+        <v>0.1635430318821264</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hipparchia hermione</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>172.2388878454858</v>
+      </c>
+      <c r="D81">
+        <v>1.72606883220999</v>
+      </c>
+      <c r="E81">
+        <v>0.139477749332367</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>228.8980073974571</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.2076955934108052</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>230.486106939049</v>
+      </c>
+      <c r="D83">
+        <v>1.588099541591902</v>
+      </c>
+      <c r="E83">
+        <v>0.09388059827596477</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>230.5901839759328</v>
+      </c>
+      <c r="D84">
+        <v>1.692176578475767</v>
+      </c>
+      <c r="E84">
+        <v>0.08912012914522138</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>230.6181622368028</v>
+      </c>
+      <c r="D85">
+        <v>1.720154839345781</v>
+      </c>
+      <c r="E85">
+        <v>0.08788209572945163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>231.7676709117437</v>
+      </c>
+      <c r="D86">
+        <v>2.869663514286685</v>
+      </c>
+      <c r="E86">
+        <v>0.0494638330658226</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>231.9522420607226</v>
+      </c>
+      <c r="D87">
+        <v>3.054234663265504</v>
+      </c>
+      <c r="E87">
+        <v>0.04510333465448445</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>232.0756580737192</v>
+      </c>
+      <c r="D88">
+        <v>3.177650676262118</v>
+      </c>
+      <c r="E88">
+        <v>0.04240423233172572</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>232.1207157432652</v>
+      </c>
+      <c r="D89">
+        <v>3.222708345808172</v>
+      </c>
+      <c r="E89">
+        <v>0.04145959512932731</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>232.2290263230397</v>
+      </c>
+      <c r="D90">
+        <v>3.331018925582612</v>
+      </c>
+      <c r="E90">
+        <v>0.0392740522113813</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>232.353846824515</v>
+      </c>
+      <c r="D91">
+        <v>3.455839427057924</v>
+      </c>
+      <c r="E91">
+        <v>0.03689786908492206</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>232.3793967878763</v>
+      </c>
+      <c r="D92">
+        <v>3.481389390419224</v>
+      </c>
+      <c r="E92">
+        <v>0.03642949757189785</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>232.766627889968</v>
+      </c>
+      <c r="D93">
+        <v>3.8686204925109</v>
+      </c>
+      <c r="E93">
+        <v>0.03001698140274833</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hipparchia semele</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>232.854380863898</v>
+      </c>
+      <c r="D94">
+        <v>3.956373466440965</v>
+      </c>
+      <c r="E94">
+        <v>0.02872841725963667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>205.9123734647448</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0.2770454392964196</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>207.4719742499082</v>
+      </c>
+      <c r="D96">
+        <v>1.559600785163326</v>
+      </c>
+      <c r="E96">
+        <v>0.1270246473097289</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>208.8320506725698</v>
+      </c>
+      <c r="D97">
+        <v>2.919677207825004</v>
+      </c>
+      <c r="E97">
+        <v>0.06435038581549286</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>208.9262300606636</v>
+      </c>
+      <c r="D98">
+        <v>3.01385659591881</v>
+      </c>
+      <c r="E98">
+        <v>0.06139038553756922</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>209.1020495039992</v>
+      </c>
+      <c r="D99">
+        <v>3.189676039254408</v>
+      </c>
+      <c r="E99">
+        <v>0.05622398886110058</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>209.30282026446</v>
+      </c>
+      <c r="D100">
+        <v>3.390446799715193</v>
+      </c>
+      <c r="E100">
+        <v>0.05085396702238545</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>209.3383142900147</v>
+      </c>
+      <c r="D101">
+        <v>3.42594082526989</v>
+      </c>
+      <c r="E101">
+        <v>0.04995942224707059</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hipparchia statilinus</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>209.475949001473</v>
+      </c>
+      <c r="D102">
+        <v>3.563575536728194</v>
+      </c>
+      <c r="E102">
+        <v>0.04663697890365737</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hyponephele</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>548.1554930168168</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.3213215405627164</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hyponephele</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>549.990037049925</v>
+      </c>
+      <c r="D104">
+        <v>1.834544033108273</v>
+      </c>
+      <c r="E104">
+        <v>0.1284025549241729</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hyponephele</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>550.0217210321589</v>
+      </c>
+      <c r="D105">
+        <v>1.866228015342131</v>
+      </c>
+      <c r="E105">
+        <v>0.126384430550862</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hyponephele</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>550.0740649973975</v>
+      </c>
+      <c r="D106">
+        <v>1.918571980580737</v>
+      </c>
+      <c r="E106">
+        <v>0.1231196092121234</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hyponephele</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>550.8251800549033</v>
+      </c>
+      <c r="D107">
+        <v>2.669687038086522</v>
+      </c>
+      <c r="E107">
+        <v>0.08457162316234154</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Lycaena alciphron</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>366.592707221128</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.4795205209819824</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Lycaena alciphron</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>368.7756463332054</v>
+      </c>
+      <c r="D109">
+        <v>2.182939112077406</v>
+      </c>
+      <c r="E109">
+        <v>0.1609859564231674</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Lycaena alciphron</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>369.2465189059466</v>
+      </c>
+      <c r="D110">
+        <v>2.653811684818663</v>
+      </c>
+      <c r="E110">
+        <v>0.1272152899414122</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Lycaena alciphron</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>369.3167963937166</v>
+      </c>
+      <c r="D111">
+        <v>2.724089172588663</v>
+      </c>
+      <c r="E111">
+        <v>0.122822730913136</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>134.4242687834177</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0.255128327327199</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>134.5044697253817</v>
+      </c>
+      <c r="D113">
+        <v>0.08020094196402283</v>
+      </c>
+      <c r="E113">
+        <v>0.2450999758521928</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>134.976249701143</v>
+      </c>
+      <c r="D114">
+        <v>0.5519809177253592</v>
+      </c>
+      <c r="E114">
+        <v>0.1935965209015441</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>136.0162803148385</v>
+      </c>
+      <c r="D115">
+        <v>1.592011531420809</v>
+      </c>
+      <c r="E115">
+        <v>0.1150953479310611</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>137.080823132292</v>
+      </c>
+      <c r="D116">
+        <v>2.656554348874351</v>
+      </c>
+      <c r="E116">
+        <v>0.06759199024688665</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>137.9378693153678</v>
+      </c>
+      <c r="D117">
+        <v>3.51360053195009</v>
+      </c>
+      <c r="E117">
+        <v>0.04403419085379979</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Maniola jurtina</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>138.3899028218515</v>
+      </c>
+      <c r="D118">
+        <v>3.965634038433791</v>
+      </c>
+      <c r="E118">
+        <v>0.03512628265223908</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Melanargia lachesis</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>440.5335085512216</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0.3013704145648877</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Melanargia lachesis</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>440.5465787900583</v>
+      </c>
+      <c r="D120">
+        <v>0.01307023883663305</v>
+      </c>
+      <c r="E120">
+        <v>0.2994073443522187</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Melanargia lachesis</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>440.7147374253548</v>
+      </c>
+      <c r="D121">
+        <v>0.1812288741331827</v>
+      </c>
+      <c r="E121">
+        <v>0.2752626366509675</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Melanargia lachesis</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>442.5040448669406</v>
+      </c>
+      <c r="D122">
+        <v>1.970536315718959</v>
+      </c>
+      <c r="E122">
+        <v>0.1125133592494107</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Melanargia occitanica</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>92.66151126139884</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0.6199748019454677</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Melanargia occitanica</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>95.99625600887227</v>
+      </c>
+      <c r="D124">
+        <v>3.334744747473422</v>
+      </c>
+      <c r="E124">
+        <v>0.1170155066461719</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>61.6026167891721</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0.08960888740672622</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>61.86368684478298</v>
+      </c>
+      <c r="D126">
+        <v>0.2610700556108796</v>
+      </c>
+      <c r="E126">
+        <v>0.07864306711612558</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>61.93597471177946</v>
+      </c>
+      <c r="D127">
+        <v>0.3333579226073624</v>
+      </c>
+      <c r="E127">
+        <v>0.07585135300698936</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>62.19188313274463</v>
+      </c>
+      <c r="D128">
+        <v>0.5892663435725325</v>
+      </c>
+      <c r="E128">
+        <v>0.06674112522984252</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>62.20878735016741</v>
+      </c>
+      <c r="D129">
+        <v>0.6061705609953165</v>
+      </c>
+      <c r="E129">
+        <v>0.06617939921261233</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>62.62293896806902</v>
+      </c>
+      <c r="D130">
+        <v>1.020322178896926</v>
+      </c>
+      <c r="E130">
+        <v>0.05380107322671111</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>62.97613226765802</v>
+      </c>
+      <c r="D131">
+        <v>1.37351547848592</v>
+      </c>
+      <c r="E131">
+        <v>0.04509163558794341</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>63.02218509497283</v>
+      </c>
+      <c r="D132">
+        <v>1.419568305800738</v>
+      </c>
+      <c r="E132">
+        <v>0.04406519985360864</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>63.05760571836141</v>
+      </c>
+      <c r="D133">
+        <v>1.454988929189312</v>
+      </c>
+      <c r="E133">
+        <v>0.04329166145102445</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>63.21665759239423</v>
+      </c>
+      <c r="D134">
+        <v>1.614040803222139</v>
+      </c>
+      <c r="E134">
+        <v>0.03998218993192321</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>63.53743845210347</v>
+      </c>
+      <c r="D135">
+        <v>1.93482166293137</v>
+      </c>
+      <c r="E135">
+        <v>0.03405727524662635</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>63.66334509671094</v>
+      </c>
+      <c r="D136">
+        <v>2.060728307538845</v>
+      </c>
+      <c r="E136">
+        <v>0.03197934901195625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>63.84017855546498</v>
+      </c>
+      <c r="D137">
+        <v>2.237561766292885</v>
+      </c>
+      <c r="E137">
+        <v>0.0292732351289941</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>63.99697959050346</v>
+      </c>
+      <c r="D138">
+        <v>2.394362801331368</v>
+      </c>
+      <c r="E138">
+        <v>0.0270658586224476</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>64.16031286192063</v>
+      </c>
+      <c r="D139">
+        <v>2.557696072748534</v>
+      </c>
+      <c r="E139">
+        <v>0.02494333041672672</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>64.68481666632948</v>
+      </c>
+      <c r="D140">
+        <v>3.082199877157386</v>
+      </c>
+      <c r="E140">
+        <v>0.01918933327941913</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>64.93896459914821</v>
+      </c>
+      <c r="D141">
+        <v>3.336347809976111</v>
+      </c>
+      <c r="E141">
+        <v>0.01689944193660356</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>64.99546273472274</v>
+      </c>
+      <c r="D142">
+        <v>3.39284594555064</v>
+      </c>
+      <c r="E142">
+        <v>0.01642872836794582</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>65.107576468486</v>
+      </c>
+      <c r="D143">
+        <v>3.504959679313906</v>
+      </c>
+      <c r="E143">
+        <v>0.01553312227946316</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>65.12846698973935</v>
+      </c>
+      <c r="D144">
+        <v>3.525850200567255</v>
+      </c>
+      <c r="E144">
+        <v>0.01537171918506875</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>65.14115823273526</v>
+      </c>
+      <c r="D145">
+        <v>3.538541443563169</v>
+      </c>
+      <c r="E145">
+        <v>0.01527448490559131</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>65.1726456375967</v>
+      </c>
+      <c r="D146">
+        <v>3.570028848424606</v>
+      </c>
+      <c r="E146">
+        <v>0.01503589106389618</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>65.22875819899483</v>
+      </c>
+      <c r="D147">
+        <v>3.626141409822729</v>
+      </c>
+      <c r="E147">
+        <v>0.01461990271352371</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>65.35683698626934</v>
+      </c>
+      <c r="D148">
+        <v>3.754220197097247</v>
+      </c>
+      <c r="E148">
+        <v>0.01371300162228602</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>65.48440250760166</v>
+      </c>
+      <c r="D149">
+        <v>3.881785718429562</v>
+      </c>
+      <c r="E149">
+        <v>0.01286565870384149</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>65.48522124522782</v>
+      </c>
+      <c r="D150">
+        <v>3.882604456055724</v>
+      </c>
+      <c r="E150">
+        <v>0.01286039298229302</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>65.5381823458257</v>
+      </c>
+      <c r="D151">
+        <v>3.935565556653607</v>
+      </c>
+      <c r="E151">
+        <v>0.01252431214052049</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Melitaea deione</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>65.6024226654749</v>
+      </c>
+      <c r="D152">
+        <v>3.999805876302808</v>
+      </c>
+      <c r="E152">
+        <v>0.01212842130757059</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>129.5921999011582</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0.2456781535201858</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>130.6783564982741</v>
+      </c>
+      <c r="D154">
+        <v>1.08615659711586</v>
+      </c>
+      <c r="E154">
+        <v>0.1427284768096349</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>131.0190606656037</v>
+      </c>
+      <c r="D155">
+        <v>1.426860764445451</v>
+      </c>
+      <c r="E155">
+        <v>0.1203726055208444</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>131.9090457795792</v>
+      </c>
+      <c r="D156">
+        <v>2.31684587842102</v>
+      </c>
+      <c r="E156">
+        <v>0.0771382619259081</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>132.0348352341057</v>
+      </c>
+      <c r="D157">
+        <v>2.442635332947475</v>
+      </c>
+      <c r="E157">
+        <v>0.07243609275141245</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>132.7515235495472</v>
+      </c>
+      <c r="D158">
+        <v>3.159323648388948</v>
+      </c>
+      <c r="E158">
+        <v>0.05062069759906353</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>132.8729241015187</v>
+      </c>
+      <c r="D159">
+        <v>3.280724200360453</v>
+      </c>
+      <c r="E159">
+        <v>0.04763940524903331</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Melitaea phoebe</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>132.9335418526121</v>
+      </c>
+      <c r="D160">
+        <v>3.341341951453927</v>
+      </c>
+      <c r="E160">
+        <v>0.04621717048614832</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>74.67684326004407</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0.1616918203237227</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>74.9550682253566</v>
+      </c>
+      <c r="D162">
+        <v>0.2782249653125319</v>
+      </c>
+      <c r="E162">
+        <v>0.1406929276138419</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>76.00167431682755</v>
+      </c>
+      <c r="D163">
+        <v>1.324831056783481</v>
+      </c>
+      <c r="E163">
+        <v>0.08336900948554475</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>76.28310798801769</v>
+      </c>
+      <c r="D164">
+        <v>1.606264727973624</v>
+      </c>
+      <c r="E164">
+        <v>0.07242559911334807</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>76.84273203207002</v>
+      </c>
+      <c r="D165">
+        <v>2.165888772025951</v>
+      </c>
+      <c r="E165">
+        <v>0.05474838079752573</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>76.98830345248356</v>
+      </c>
+      <c r="D166">
+        <v>2.311460192439498</v>
+      </c>
+      <c r="E166">
+        <v>0.05090504749535073</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>77.00323214122089</v>
+      </c>
+      <c r="D167">
+        <v>2.326388881176825</v>
+      </c>
+      <c r="E167">
+        <v>0.05052648929279386</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>77.02387189447569</v>
+      </c>
+      <c r="D168">
+        <v>2.347028634431624</v>
+      </c>
+      <c r="E168">
+        <v>0.05000774345724335</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>77.64507385998326</v>
+      </c>
+      <c r="D169">
+        <v>2.96823059993919</v>
+      </c>
+      <c r="E169">
+        <v>0.0366559909869176</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>78.37517796649786</v>
+      </c>
+      <c r="D170">
+        <v>3.698334706453792</v>
+      </c>
+      <c r="E170">
+        <v>0.02544514164075375</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Melitaea trivia</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>78.5353383449166</v>
+      </c>
+      <c r="D171">
+        <v>3.85849508487253</v>
+      </c>
+      <c r="E171">
+        <v>0.02348694270982049</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Parnassius apollo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>262.1695537163327</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0.8233242152495707</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Plebejus argus</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>220.151702668273</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0.38155701411467</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Plebejus argus</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>222.3263181890626</v>
+      </c>
+      <c r="D174">
+        <v>2.17461552078953</v>
+      </c>
+      <c r="E174">
+        <v>0.1286316027775549</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Plebejus argus</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>222.5334177141906</v>
+      </c>
+      <c r="D175">
+        <v>2.381715045917559</v>
+      </c>
+      <c r="E175">
+        <v>0.1159782604721633</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Plebejus argus</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>222.7612996469783</v>
+      </c>
+      <c r="D176">
+        <v>2.609596978705298</v>
+      </c>
+      <c r="E176">
+        <v>0.1034886347426686</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>86.35974894945716</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0.3290322316557838</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>88.24144890880868</v>
+      </c>
+      <c r="D178">
+        <v>1.881699959351522</v>
+      </c>
+      <c r="E178">
+        <v>0.1284199476667695</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>88.72669005793676</v>
+      </c>
+      <c r="D179">
+        <v>2.366941108479608</v>
+      </c>
+      <c r="E179">
+        <v>0.1007543282584415</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>89.11636491551623</v>
+      </c>
+      <c r="D180">
+        <v>2.756615966059073</v>
+      </c>
+      <c r="E180">
+        <v>0.08291763216433988</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>89.8647903743273</v>
+      </c>
+      <c r="D181">
+        <v>3.505041424870143</v>
+      </c>
+      <c r="E181">
+        <v>0.05703328256571999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Plebejus idas</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>89.87110749420913</v>
+      </c>
+      <c r="D182">
+        <v>3.511358544751971</v>
+      </c>
+      <c r="E182">
+        <v>0.05685342372111001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>37.17533459210371</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0.1011099204723038</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>37.44884135597118</v>
+      </c>
+      <c r="D184">
+        <v>0.2735067638674735</v>
+      </c>
+      <c r="E184">
+        <v>0.08818658594217534</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>37.76224292965982</v>
+      </c>
+      <c r="D185">
+        <v>0.5869083375561104</v>
+      </c>
+      <c r="E185">
+        <v>0.07539598903514803</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>38.06654155885557</v>
+      </c>
+      <c r="D186">
+        <v>0.8912069667518594</v>
+      </c>
+      <c r="E186">
+        <v>0.06475460146691689</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>38.20977901792251</v>
+      </c>
+      <c r="D187">
+        <v>1.034444425818805</v>
+      </c>
+      <c r="E187">
+        <v>0.06027913558430701</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>38.39165139578812</v>
+      </c>
+      <c r="D188">
+        <v>1.216316803684414</v>
+      </c>
+      <c r="E188">
+        <v>0.05503943039890821</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>38.65479653729219</v>
+      </c>
+      <c r="D189">
+        <v>1.479461945188476</v>
+      </c>
+      <c r="E189">
+        <v>0.04825392993809984</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>39.0471412515957</v>
+      </c>
+      <c r="D190">
+        <v>1.871806659491995</v>
+      </c>
+      <c r="E190">
+        <v>0.0396584847678435</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>39.46792813950847</v>
+      </c>
+      <c r="D191">
+        <v>2.292593547404763</v>
+      </c>
+      <c r="E191">
+        <v>0.03213389759659801</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>39.51331665429463</v>
+      </c>
+      <c r="D192">
+        <v>2.337982062190918</v>
+      </c>
+      <c r="E192">
+        <v>0.03141285535879147</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>39.75338721724155</v>
+      </c>
+      <c r="D193">
+        <v>2.578052625137843</v>
+      </c>
+      <c r="E193">
+        <v>0.02785972044402485</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>39.8854336105324</v>
+      </c>
+      <c r="D194">
+        <v>2.710099018428686</v>
+      </c>
+      <c r="E194">
+        <v>0.02607973920870816</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>40.02646047741285</v>
+      </c>
+      <c r="D195">
+        <v>2.851125885309145</v>
+      </c>
+      <c r="E195">
+        <v>0.02430410591824666</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>40.08342180167689</v>
+      </c>
+      <c r="D196">
+        <v>2.908087209573182</v>
+      </c>
+      <c r="E196">
+        <v>0.02362167308749362</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C197">
+        <v>40.44051031694748</v>
+      </c>
+      <c r="D197">
+        <v>3.265175724843772</v>
+      </c>
+      <c r="E197">
+        <v>0.01975922328553194</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>40.44800138533088</v>
+      </c>
+      <c r="D198">
+        <v>3.272666793227167</v>
+      </c>
+      <c r="E198">
+        <v>0.01968535286756354</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>40.45198219862277</v>
+      </c>
+      <c r="D199">
+        <v>3.276647606519063</v>
+      </c>
+      <c r="E199">
+        <v>0.01964620997844419</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>40.45313999605554</v>
+      </c>
+      <c r="D200">
+        <v>3.277805403951831</v>
+      </c>
+      <c r="E200">
+        <v>0.01963484010402624</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>40.53219900354836</v>
+      </c>
+      <c r="D201">
+        <v>3.356864411444647</v>
+      </c>
+      <c r="E201">
+        <v>0.01887382498664926</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C202">
+        <v>40.61945208693238</v>
+      </c>
+      <c r="D202">
+        <v>3.444117494828674</v>
+      </c>
+      <c r="E202">
+        <v>0.01806812794628491</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C203">
+        <v>40.64803204876974</v>
+      </c>
+      <c r="D203">
+        <v>3.472697456666033</v>
+      </c>
+      <c r="E203">
+        <v>0.0178117707746474</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>40.70583209582365</v>
+      </c>
+      <c r="D204">
+        <v>3.530497503719936</v>
+      </c>
+      <c r="E204">
+        <v>0.01730437733593363</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>40.73691068180779</v>
+      </c>
+      <c r="D205">
+        <v>3.561576089704076</v>
+      </c>
+      <c r="E205">
+        <v>0.01703755800736851</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>40.80800724378886</v>
+      </c>
+      <c r="D206">
+        <v>3.632672651685148</v>
+      </c>
+      <c r="E206">
+        <v>0.01644254068735789</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>40.89391805116907</v>
+      </c>
+      <c r="D207">
+        <v>3.718583459065357</v>
+      </c>
+      <c r="E207">
+        <v>0.01575119943576896</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>41.16908647287463</v>
+      </c>
+      <c r="D208">
+        <v>3.993751880770922</v>
+      </c>
+      <c r="E208">
+        <v>0.01372655538832141</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>41.17129969418477</v>
+      </c>
+      <c r="D209">
+        <v>3.995965102081058</v>
+      </c>
+      <c r="E209">
+        <v>0.01371137383745354</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Polyommatus escheri</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>128.8369630757005</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0.883867544199437</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>72.51941428384144</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0.1865162774010132</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>73.97107767600444</v>
+      </c>
+      <c r="D212">
+        <v>1.451663392162999</v>
+      </c>
+      <c r="E212">
+        <v>0.0902593161102071</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>74.33052087542018</v>
+      </c>
+      <c r="D213">
+        <v>1.811106591578735</v>
+      </c>
+      <c r="E213">
+        <v>0.07541190982474115</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>74.44721385867427</v>
+      </c>
+      <c r="D214">
+        <v>1.927799574832832</v>
+      </c>
+      <c r="E214">
+        <v>0.07113779182222391</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>74.56342584961421</v>
+      </c>
+      <c r="D215">
+        <v>2.044011565772763</v>
+      </c>
+      <c r="E215">
+        <v>0.06712205850260265</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>74.82925985493199</v>
+      </c>
+      <c r="D216">
+        <v>2.309845571090548</v>
+      </c>
+      <c r="E216">
+        <v>0.0587678965062564</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>74.84021914136255</v>
+      </c>
+      <c r="D217">
+        <v>2.320804857521111</v>
+      </c>
+      <c r="E217">
+        <v>0.05844675008835908</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>75.17259020692202</v>
+      </c>
+      <c r="D218">
+        <v>2.653175923080582</v>
+      </c>
+      <c r="E218">
+        <v>0.04949791522517917</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>75.3133752506469</v>
+      </c>
+      <c r="D219">
+        <v>2.793960966805457</v>
+      </c>
+      <c r="E219">
+        <v>0.04613343831662372</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>75.7533018433567</v>
+      </c>
+      <c r="D220">
+        <v>3.233887559515253</v>
+      </c>
+      <c r="E220">
+        <v>0.03702431036594235</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>75.82648411416403</v>
+      </c>
+      <c r="D221">
+        <v>3.30706983032259</v>
+      </c>
+      <c r="E221">
+        <v>0.03569403537169494</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>76.42983876875265</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0.2242548893621231</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C223">
+        <v>77.06512626254744</v>
+      </c>
+      <c r="D223">
+        <v>0.6352874937947917</v>
+      </c>
+      <c r="E223">
+        <v>0.1632266224493352</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C224">
+        <v>78.29114570274808</v>
+      </c>
+      <c r="D224">
+        <v>1.861306933995436</v>
+      </c>
+      <c r="E224">
+        <v>0.08842279840297074</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C225">
+        <v>78.35798032246501</v>
+      </c>
+      <c r="D225">
+        <v>1.928141553712365</v>
+      </c>
+      <c r="E225">
+        <v>0.08551677256208472</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C226">
+        <v>78.75918033674836</v>
+      </c>
+      <c r="D226">
+        <v>2.329341567995712</v>
+      </c>
+      <c r="E226">
+        <v>0.06997321457408584</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C227">
+        <v>79.44776820622822</v>
+      </c>
+      <c r="D227">
+        <v>3.017929437475573</v>
+      </c>
+      <c r="E227">
+        <v>0.04959145720560645</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C228">
+        <v>80.2775610497409</v>
+      </c>
+      <c r="D228">
+        <v>3.847722280988251</v>
+      </c>
+      <c r="E228">
+        <v>0.03275062884865853</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C229">
+        <v>97.74887863351127</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0.2415894969986947</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C230">
+        <v>98.75147735891323</v>
+      </c>
+      <c r="D230">
+        <v>1.002598725401967</v>
+      </c>
+      <c r="E230">
+        <v>0.1463411631546455</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C231">
+        <v>99.63880288015645</v>
+      </c>
+      <c r="D231">
+        <v>1.88992424664518</v>
+      </c>
+      <c r="E231">
+        <v>0.09390445874935562</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C232">
+        <v>100.0079922849191</v>
+      </c>
+      <c r="D232">
+        <v>2.259113651407844</v>
+      </c>
+      <c r="E232">
+        <v>0.07807603555893272</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C233">
+        <v>100.5015494429828</v>
+      </c>
+      <c r="D233">
+        <v>2.752670809471539</v>
+      </c>
+      <c r="E233">
+        <v>0.06100187416345495</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C234">
+        <v>100.7959576331699</v>
+      </c>
+      <c r="D234">
+        <v>3.047078999658666</v>
+      </c>
+      <c r="E234">
+        <v>0.05265180350498123</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C235">
+        <v>50.68490002592745</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0.4325681154295223</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>52.81150094445915</v>
+      </c>
+      <c r="D236">
+        <v>2.126600918531693</v>
+      </c>
+      <c r="E236">
+        <v>0.1493719265427494</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C237">
+        <v>53.91153505641049</v>
+      </c>
+      <c r="D237">
+        <v>3.226635030483038</v>
+      </c>
+      <c r="E237">
+        <v>0.08617863482177321</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C238">
+        <v>54.12966050849526</v>
+      </c>
+      <c r="D238">
+        <v>3.444760482567801</v>
+      </c>
+      <c r="E238">
+        <v>0.0772741559291539</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C239">
+        <v>93.55018567165295</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0.4329949742526255</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C240">
+        <v>96.13242652284055</v>
+      </c>
+      <c r="D240">
+        <v>2.582240851187592</v>
+      </c>
+      <c r="E240">
+        <v>0.1190573959254443</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C241">
+        <v>97.43532619689779</v>
+      </c>
+      <c r="D241">
+        <v>3.885140525244836</v>
+      </c>
+      <c r="E241">
+        <v>0.06206336371123176</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C242">
+        <v>32.71793999023642</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0.08161045013755203</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>33.14394888244013</v>
+      </c>
+      <c r="D243">
+        <v>0.4260088922037113</v>
+      </c>
+      <c r="E243">
+        <v>0.06595369290217461</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C244">
+        <v>33.77381381086067</v>
+      </c>
+      <c r="D244">
+        <v>1.05587382062425</v>
+      </c>
+      <c r="E244">
+        <v>0.04813552205768877</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C245">
+        <v>33.86465892380025</v>
+      </c>
+      <c r="D245">
+        <v>1.146718933563832</v>
+      </c>
+      <c r="E245">
+        <v>0.04599799701549478</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C246">
+        <v>33.88779405090703</v>
+      </c>
+      <c r="D246">
+        <v>1.169854060670616</v>
+      </c>
+      <c r="E246">
+        <v>0.04546897789178254</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C247">
+        <v>34.02494694586289</v>
+      </c>
+      <c r="D247">
+        <v>1.307006955626477</v>
+      </c>
+      <c r="E247">
+        <v>0.04245538846150335</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C248">
+        <v>34.19958593299582</v>
+      </c>
+      <c r="D248">
+        <v>1.4816459427594</v>
+      </c>
+      <c r="E248">
+        <v>0.03890545016197055</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C249">
+        <v>34.23122395062344</v>
+      </c>
+      <c r="D249">
+        <v>1.513283960387028</v>
+      </c>
+      <c r="E249">
+        <v>0.03829484680600295</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C250">
+        <v>34.42099331632861</v>
+      </c>
+      <c r="D250">
+        <v>1.703053326092196</v>
+      </c>
+      <c r="E250">
+        <v>0.03482831328515831</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C251">
+        <v>34.46146630844328</v>
+      </c>
+      <c r="D251">
+        <v>1.743526318206861</v>
+      </c>
+      <c r="E251">
+        <v>0.03413059377021926</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C252">
+        <v>34.56178227139887</v>
+      </c>
+      <c r="D252">
+        <v>1.843842281162452</v>
+      </c>
+      <c r="E252">
+        <v>0.03246089644441922</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C253">
+        <v>34.59449814442841</v>
+      </c>
+      <c r="D253">
+        <v>1.876558154191997</v>
+      </c>
+      <c r="E253">
+        <v>0.03193422255418819</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C254">
+        <v>34.6050353521792</v>
+      </c>
+      <c r="D254">
+        <v>1.887095361942784</v>
+      </c>
+      <c r="E254">
+        <v>0.03176641622618297</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C255">
+        <v>34.65245073575683</v>
+      </c>
+      <c r="D255">
+        <v>1.934510745520413</v>
+      </c>
+      <c r="E255">
+        <v>0.03102216492017792</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C256">
+        <v>34.67792684678575</v>
+      </c>
+      <c r="D256">
+        <v>1.959986856549335</v>
+      </c>
+      <c r="E256">
+        <v>0.03062950900694085</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C257">
+        <v>34.69106209462063</v>
+      </c>
+      <c r="D257">
+        <v>1.97312210438421</v>
+      </c>
+      <c r="E257">
+        <v>0.03042900504900801</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C258">
+        <v>35.27533063070356</v>
+      </c>
+      <c r="D258">
+        <v>2.557390640467148</v>
+      </c>
+      <c r="E258">
+        <v>0.02272037272681659</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C259">
+        <v>35.3007277748889</v>
+      </c>
+      <c r="D259">
+        <v>2.582787784652481</v>
+      </c>
+      <c r="E259">
+        <v>0.02243368057873284</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C260">
+        <v>35.34645147596606</v>
+      </c>
+      <c r="D260">
+        <v>2.628511485729646</v>
+      </c>
+      <c r="E260">
+        <v>0.02192662334452637</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C261">
+        <v>35.47265060188339</v>
+      </c>
+      <c r="D261">
+        <v>2.754710611646978</v>
+      </c>
+      <c r="E261">
+        <v>0.02058581020317775</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C262">
+        <v>35.53288458079759</v>
+      </c>
+      <c r="D262">
+        <v>2.814944590561169</v>
+      </c>
+      <c r="E262">
+        <v>0.01997507055679121</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C263">
+        <v>35.58186265422215</v>
+      </c>
+      <c r="D263">
+        <v>2.863922663985733</v>
+      </c>
+      <c r="E263">
+        <v>0.01949184137879278</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C264">
+        <v>35.58857965111636</v>
+      </c>
+      <c r="D264">
+        <v>2.870639660879945</v>
+      </c>
+      <c r="E264">
+        <v>0.01942648786605602</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C265">
+        <v>35.591601934595</v>
+      </c>
+      <c r="D265">
+        <v>2.873661944358588</v>
+      </c>
+      <c r="E265">
+        <v>0.01939715385889663</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C266">
+        <v>35.59308142341882</v>
+      </c>
+      <c r="D266">
+        <v>2.875141433182407</v>
+      </c>
+      <c r="E266">
+        <v>0.01938281022868682</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C267">
+        <v>35.59778042214145</v>
+      </c>
+      <c r="D267">
+        <v>2.879840431905038</v>
+      </c>
+      <c r="E267">
+        <v>0.01933732378454407</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C268">
+        <v>35.61884518839188</v>
+      </c>
+      <c r="D268">
+        <v>2.900905198155463</v>
+      </c>
+      <c r="E268">
+        <v>0.01913472448144626</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C269">
+        <v>35.64348521976291</v>
+      </c>
+      <c r="D269">
+        <v>2.925545229526492</v>
+      </c>
+      <c r="E269">
+        <v>0.01890043059137135</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C270">
+        <v>35.66098347164598</v>
+      </c>
+      <c r="D270">
+        <v>2.943043481409568</v>
+      </c>
+      <c r="E270">
+        <v>0.01873578962627997</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C271">
+        <v>35.66208185592052</v>
+      </c>
+      <c r="D271">
+        <v>2.944141865684102</v>
+      </c>
+      <c r="E271">
+        <v>0.01872550290288407</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C272">
+        <v>35.66986709777019</v>
+      </c>
+      <c r="D272">
+        <v>2.95192710753377</v>
+      </c>
+      <c r="E272">
+        <v>0.01865275330362394</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C273">
+        <v>35.67662686212833</v>
+      </c>
+      <c r="D273">
+        <v>2.958686871891913</v>
+      </c>
+      <c r="E273">
+        <v>0.01858981561604131</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C274">
+        <v>35.67979813753296</v>
+      </c>
+      <c r="D274">
+        <v>2.961858147296539</v>
+      </c>
+      <c r="E274">
+        <v>0.01856036226086777</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Satyrus actaea</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C275">
+        <v>569.8950104580364</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0.9453027777420332</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C276">
+        <v>83.64334693339899</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0.7951295488097744</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C277">
+        <v>86.65370634813442</v>
+      </c>
+      <c r="D277">
+        <v>3.010359414735433</v>
+      </c>
+      <c r="E277">
+        <v>0.1765007893301205</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C278">
+        <v>63.09690849853159</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0.2025782022624595</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C279">
+        <v>63.56572758621728</v>
+      </c>
+      <c r="D279">
+        <v>0.4688190876856879</v>
+      </c>
+      <c r="E279">
+        <v>0.1602470123853835</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>63.91199584587049</v>
+      </c>
+      <c r="D280">
+        <v>0.8150873473389026</v>
+      </c>
+      <c r="E280">
+        <v>0.1347717116651207</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C281">
+        <v>64.34245564283719</v>
+      </c>
+      <c r="D281">
+        <v>1.245547144305604</v>
+      </c>
+      <c r="E281">
+        <v>0.1086739835654384</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C282">
+        <v>64.51534448757468</v>
+      </c>
+      <c r="D282">
+        <v>1.41843598904309</v>
+      </c>
+      <c r="E282">
+        <v>0.09967431306418792</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C283">
+        <v>64.76455592257324</v>
+      </c>
+      <c r="D283">
+        <v>1.667647424041647</v>
+      </c>
+      <c r="E283">
+        <v>0.0879969613693304</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C284">
+        <v>65.21168967891033</v>
+      </c>
+      <c r="D284">
+        <v>2.114781180378742</v>
+      </c>
+      <c r="E284">
+        <v>0.07036777422091631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
